--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lama2-Itga7.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lama2-Itga7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itga7</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.45705511607906</v>
+        <v>4.608931666666666</v>
       </c>
       <c r="H2">
-        <v>3.45705511607906</v>
+        <v>13.826795</v>
       </c>
       <c r="I2">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890621</v>
       </c>
       <c r="J2">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890622</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.03573685273186</v>
+        <v>5.636552333333334</v>
       </c>
       <c r="N2">
-        <v>5.03573685273186</v>
+        <v>16.909657</v>
       </c>
       <c r="O2">
-        <v>0.09386091669400602</v>
+        <v>0.09690140221006956</v>
       </c>
       <c r="P2">
-        <v>0.09386091669400602</v>
+        <v>0.09690140221006956</v>
       </c>
       <c r="Q2">
-        <v>17.40881984996454</v>
+        <v>25.97848453992389</v>
       </c>
       <c r="R2">
-        <v>17.40881984996454</v>
+        <v>233.806360859315</v>
       </c>
       <c r="S2">
-        <v>0.001625884127741615</v>
+        <v>0.0021991864976763</v>
       </c>
       <c r="T2">
-        <v>0.001625884127741615</v>
+        <v>0.002199186497676301</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.45705511607906</v>
+        <v>4.608931666666666</v>
       </c>
       <c r="H3">
-        <v>3.45705511607906</v>
+        <v>13.826795</v>
       </c>
       <c r="I3">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890621</v>
       </c>
       <c r="J3">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890622</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.02706288045282</v>
+        <v>4.050135999999999</v>
       </c>
       <c r="N3">
-        <v>4.02706288045282</v>
+        <v>12.150408</v>
       </c>
       <c r="O3">
-        <v>0.07506027908083637</v>
+        <v>0.06962835335006774</v>
       </c>
       <c r="P3">
-        <v>0.07506027908083637</v>
+        <v>0.06962835335006774</v>
       </c>
       <c r="Q3">
-        <v>13.9217783336415</v>
+        <v>18.66680006470666</v>
       </c>
       <c r="R3">
-        <v>13.9217783336415</v>
+        <v>168.00120058236</v>
       </c>
       <c r="S3">
-        <v>0.001300214409574175</v>
+        <v>0.001580222071616124</v>
       </c>
       <c r="T3">
-        <v>0.001300214409574175</v>
+        <v>0.001580222071616124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.45705511607906</v>
+        <v>4.608931666666666</v>
       </c>
       <c r="H4">
-        <v>3.45705511607906</v>
+        <v>13.826795</v>
       </c>
       <c r="I4">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890621</v>
       </c>
       <c r="J4">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890622</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.482023587301186</v>
+        <v>0.6741636666666667</v>
       </c>
       <c r="N4">
-        <v>0.482023587301186</v>
+        <v>2.022491</v>
       </c>
       <c r="O4">
-        <v>0.008984420174314386</v>
+        <v>0.01158995796645939</v>
       </c>
       <c r="P4">
-        <v>0.008984420174314386</v>
+        <v>0.01158995796645939</v>
       </c>
       <c r="Q4">
-        <v>1.666382108550347</v>
+        <v>3.107174271816111</v>
       </c>
       <c r="R4">
-        <v>1.666382108550347</v>
+        <v>27.964568446345</v>
       </c>
       <c r="S4">
-        <v>0.0001556305507435148</v>
+        <v>0.0002630351933733392</v>
       </c>
       <c r="T4">
-        <v>0.0001556305507435148</v>
+        <v>0.0002630351933733392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.45705511607906</v>
+        <v>4.608931666666666</v>
       </c>
       <c r="H5">
-        <v>3.45705511607906</v>
+        <v>13.826795</v>
       </c>
       <c r="I5">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890621</v>
       </c>
       <c r="J5">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890622</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.1062279381414</v>
+        <v>47.807061</v>
       </c>
       <c r="N5">
-        <v>44.1062279381414</v>
+        <v>143.421183</v>
       </c>
       <c r="O5">
-        <v>0.8220943840508433</v>
+        <v>0.8218802864734033</v>
       </c>
       <c r="P5">
-        <v>0.8220943840508433</v>
+        <v>0.8218802864734033</v>
       </c>
       <c r="Q5">
-        <v>152.4776609445009</v>
+        <v>220.339477333165</v>
       </c>
       <c r="R5">
-        <v>152.4776609445009</v>
+        <v>1983.055295998485</v>
       </c>
       <c r="S5">
-        <v>0.01424054076619884</v>
+        <v>0.01865265091624045</v>
       </c>
       <c r="T5">
-        <v>0.01424054076619884</v>
+        <v>0.01865265091624045</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>167.52411133695</v>
+        <v>168.218394</v>
       </c>
       <c r="H6">
-        <v>167.52411133695</v>
+        <v>504.655182</v>
       </c>
       <c r="I6">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316415</v>
       </c>
       <c r="J6">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316416</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.03573685273186</v>
+        <v>5.636552333333334</v>
       </c>
       <c r="N6">
-        <v>5.03573685273186</v>
+        <v>16.909657</v>
       </c>
       <c r="O6">
-        <v>0.09386091669400602</v>
+        <v>0.09690140221006956</v>
       </c>
       <c r="P6">
-        <v>0.09386091669400602</v>
+        <v>0.09690140221006956</v>
       </c>
       <c r="Q6">
-        <v>843.6073411806343</v>
+        <v>948.1717812102862</v>
       </c>
       <c r="R6">
-        <v>843.6073411806343</v>
+        <v>8533.546030892576</v>
       </c>
       <c r="S6">
-        <v>0.07878809694700198</v>
+        <v>0.08026667512151416</v>
       </c>
       <c r="T6">
-        <v>0.07878809694700198</v>
+        <v>0.08026667512151417</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>167.52411133695</v>
+        <v>168.218394</v>
       </c>
       <c r="H7">
-        <v>167.52411133695</v>
+        <v>504.655182</v>
       </c>
       <c r="I7">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316415</v>
       </c>
       <c r="J7">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316416</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.02706288045282</v>
+        <v>4.050135999999999</v>
       </c>
       <c r="N7">
-        <v>4.02706288045282</v>
+        <v>12.150408</v>
       </c>
       <c r="O7">
-        <v>0.07506027908083637</v>
+        <v>0.06962835335006774</v>
       </c>
       <c r="P7">
-        <v>0.07506027908083637</v>
+        <v>0.06962835335006774</v>
       </c>
       <c r="Q7">
-        <v>674.6301303458768</v>
+        <v>681.307373401584</v>
       </c>
       <c r="R7">
-        <v>674.6301303458768</v>
+        <v>6131.766360614256</v>
       </c>
       <c r="S7">
-        <v>0.06300659266273308</v>
+        <v>0.05767549581460146</v>
       </c>
       <c r="T7">
-        <v>0.06300659266273308</v>
+        <v>0.05767549581460147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>167.52411133695</v>
+        <v>168.218394</v>
       </c>
       <c r="H8">
-        <v>167.52411133695</v>
+        <v>504.655182</v>
       </c>
       <c r="I8">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316415</v>
       </c>
       <c r="J8">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316416</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.482023587301186</v>
+        <v>0.6741636666666667</v>
       </c>
       <c r="N8">
-        <v>0.482023587301186</v>
+        <v>2.022491</v>
       </c>
       <c r="O8">
-        <v>0.008984420174314386</v>
+        <v>0.01158995796645939</v>
       </c>
       <c r="P8">
-        <v>0.008984420174314386</v>
+        <v>0.01158995796645939</v>
       </c>
       <c r="Q8">
-        <v>80.75057310607993</v>
+        <v>113.406729299818</v>
       </c>
       <c r="R8">
-        <v>80.75057310607993</v>
+        <v>1020.660563698362</v>
       </c>
       <c r="S8">
-        <v>0.007541641320361052</v>
+        <v>0.009600350145079008</v>
       </c>
       <c r="T8">
-        <v>0.007541641320361052</v>
+        <v>0.009600350145079008</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>167.52411133695</v>
+        <v>168.218394</v>
       </c>
       <c r="H9">
-        <v>167.52411133695</v>
+        <v>504.655182</v>
       </c>
       <c r="I9">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316415</v>
       </c>
       <c r="J9">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316416</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.1062279381414</v>
+        <v>47.807061</v>
       </c>
       <c r="N9">
-        <v>44.1062279381414</v>
+        <v>143.421183</v>
       </c>
       <c r="O9">
-        <v>0.8220943840508433</v>
+        <v>0.8218802864734033</v>
       </c>
       <c r="P9">
-        <v>0.8220943840508433</v>
+        <v>0.8218802864734033</v>
       </c>
       <c r="Q9">
-        <v>7388.856639762094</v>
+        <v>8042.027023280036</v>
       </c>
       <c r="R9">
-        <v>7388.856639762094</v>
+        <v>72378.24320952031</v>
       </c>
       <c r="S9">
-        <v>0.6900769171192213</v>
+        <v>0.6807909528504468</v>
       </c>
       <c r="T9">
-        <v>0.6900769171192213</v>
+        <v>0.6807909528504469</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>28.5917039135673</v>
+        <v>0.1627236666666667</v>
       </c>
       <c r="H10">
-        <v>28.5917039135673</v>
+        <v>0.488171</v>
       </c>
       <c r="I10">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="J10">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.03573685273186</v>
+        <v>5.636552333333334</v>
       </c>
       <c r="N10">
-        <v>5.03573685273186</v>
+        <v>16.909657</v>
       </c>
       <c r="O10">
-        <v>0.09386091669400602</v>
+        <v>0.09690140221006956</v>
       </c>
       <c r="P10">
-        <v>0.09386091669400602</v>
+        <v>0.09690140221006956</v>
       </c>
       <c r="Q10">
-        <v>143.9802970799486</v>
+        <v>0.9172004630385558</v>
       </c>
       <c r="R10">
-        <v>143.9802970799486</v>
+        <v>8.254804167347002</v>
       </c>
       <c r="S10">
-        <v>0.01344693561926242</v>
+        <v>7.764482454228458E-05</v>
       </c>
       <c r="T10">
-        <v>0.01344693561926242</v>
+        <v>7.764482454228458E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>28.5917039135673</v>
+        <v>0.1627236666666667</v>
       </c>
       <c r="H11">
-        <v>28.5917039135673</v>
+        <v>0.488171</v>
       </c>
       <c r="I11">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="J11">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.02706288045282</v>
+        <v>4.050135999999999</v>
       </c>
       <c r="N11">
-        <v>4.02706288045282</v>
+        <v>12.150408</v>
       </c>
       <c r="O11">
-        <v>0.07506027908083637</v>
+        <v>0.06962835335006774</v>
       </c>
       <c r="P11">
-        <v>0.07506027908083637</v>
+        <v>0.06962835335006774</v>
       </c>
       <c r="Q11">
-        <v>115.1405895192245</v>
+        <v>0.6590529804186667</v>
       </c>
       <c r="R11">
-        <v>115.1405895192245</v>
+        <v>5.931476823768</v>
       </c>
       <c r="S11">
-        <v>0.01075347200852911</v>
+        <v>5.579156911799989E-05</v>
       </c>
       <c r="T11">
-        <v>0.01075347200852911</v>
+        <v>5.579156911799989E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>28.5917039135673</v>
+        <v>0.1627236666666667</v>
       </c>
       <c r="H12">
-        <v>28.5917039135673</v>
+        <v>0.488171</v>
       </c>
       <c r="I12">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="J12">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.482023587301186</v>
+        <v>0.6741636666666667</v>
       </c>
       <c r="N12">
-        <v>0.482023587301186</v>
+        <v>2.022491</v>
       </c>
       <c r="O12">
-        <v>0.008984420174314386</v>
+        <v>0.01158995796645939</v>
       </c>
       <c r="P12">
-        <v>0.008984420174314386</v>
+        <v>0.01158995796645939</v>
       </c>
       <c r="Q12">
-        <v>13.78187568747107</v>
+        <v>0.1097023837734445</v>
       </c>
       <c r="R12">
-        <v>13.78187568747107</v>
+        <v>0.987321453961</v>
       </c>
       <c r="S12">
-        <v>0.001287148303209819</v>
+        <v>9.286761927421099E-06</v>
       </c>
       <c r="T12">
-        <v>0.001287148303209819</v>
+        <v>9.286761927421098E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1627236666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.488171</v>
+      </c>
+      <c r="I13">
+        <v>0.00080127658394417</v>
+      </c>
+      <c r="J13">
+        <v>0.00080127658394417</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>47.807061</v>
+      </c>
+      <c r="N13">
+        <v>143.421183</v>
+      </c>
+      <c r="O13">
+        <v>0.8218802864734033</v>
+      </c>
+      <c r="P13">
+        <v>0.8218802864734033</v>
+      </c>
+      <c r="Q13">
+        <v>7.779340258477002</v>
+      </c>
+      <c r="R13">
+        <v>70.01406232629301</v>
+      </c>
+      <c r="S13">
+        <v>0.0006585534283564644</v>
+      </c>
+      <c r="T13">
+        <v>0.0006585534283564644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>30.09047233333333</v>
+      </c>
+      <c r="H14">
+        <v>90.271417</v>
+      </c>
+      <c r="I14">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="J14">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.636552333333334</v>
+      </c>
+      <c r="N14">
+        <v>16.909657</v>
+      </c>
+      <c r="O14">
+        <v>0.09690140221006956</v>
+      </c>
+      <c r="P14">
+        <v>0.09690140221006956</v>
+      </c>
+      <c r="Q14">
+        <v>169.6065220415522</v>
+      </c>
+      <c r="R14">
+        <v>1526.458698373969</v>
+      </c>
+      <c r="S14">
+        <v>0.01435789576633681</v>
+      </c>
+      <c r="T14">
+        <v>0.01435789576633681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>30.09047233333333</v>
+      </c>
+      <c r="H15">
+        <v>90.271417</v>
+      </c>
+      <c r="I15">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="J15">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.050135999999999</v>
+      </c>
+      <c r="N15">
+        <v>12.150408</v>
+      </c>
+      <c r="O15">
+        <v>0.06962835335006774</v>
+      </c>
+      <c r="P15">
+        <v>0.06962835335006774</v>
+      </c>
+      <c r="Q15">
+        <v>121.8705052542373</v>
+      </c>
+      <c r="R15">
+        <v>1096.834547288136</v>
+      </c>
+      <c r="S15">
+        <v>0.01031684389473215</v>
+      </c>
+      <c r="T15">
+        <v>0.01031684389473215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>28.5917039135673</v>
-      </c>
-      <c r="H13">
-        <v>28.5917039135673</v>
-      </c>
-      <c r="I13">
-        <v>0.1432644820964245</v>
-      </c>
-      <c r="J13">
-        <v>0.1432644820964245</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>44.1062279381414</v>
-      </c>
-      <c r="N13">
-        <v>44.1062279381414</v>
-      </c>
-      <c r="O13">
-        <v>0.8220943840508433</v>
-      </c>
-      <c r="P13">
-        <v>0.8220943840508433</v>
-      </c>
-      <c r="Q13">
-        <v>1261.072209951649</v>
-      </c>
-      <c r="R13">
-        <v>1261.072209951649</v>
-      </c>
-      <c r="S13">
-        <v>0.1177769261654232</v>
-      </c>
-      <c r="T13">
-        <v>0.1177769261654232</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>30.09047233333333</v>
+      </c>
+      <c r="H16">
+        <v>90.271417</v>
+      </c>
+      <c r="I16">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="J16">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6741636666666667</v>
+      </c>
+      <c r="N16">
+        <v>2.022491</v>
+      </c>
+      <c r="O16">
+        <v>0.01158995796645939</v>
+      </c>
+      <c r="P16">
+        <v>0.01158995796645939</v>
+      </c>
+      <c r="Q16">
+        <v>20.28590315997189</v>
+      </c>
+      <c r="R16">
+        <v>182.573128439747</v>
+      </c>
+      <c r="S16">
+        <v>0.001717285866079619</v>
+      </c>
+      <c r="T16">
+        <v>0.001717285866079619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>30.09047233333333</v>
+      </c>
+      <c r="H17">
+        <v>90.271417</v>
+      </c>
+      <c r="I17">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="J17">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>47.807061</v>
+      </c>
+      <c r="N17">
+        <v>143.421183</v>
+      </c>
+      <c r="O17">
+        <v>0.8218802864734033</v>
+      </c>
+      <c r="P17">
+        <v>0.8218802864734033</v>
+      </c>
+      <c r="Q17">
+        <v>1438.537046358479</v>
+      </c>
+      <c r="R17">
+        <v>12946.83341722631</v>
+      </c>
+      <c r="S17">
+        <v>0.1217781292783595</v>
+      </c>
+      <c r="T17">
+        <v>0.1217781292783595</v>
       </c>
     </row>
   </sheetData>
